--- a/biology/Médecine/Tacrine/Tacrine.xlsx
+++ b/biology/Médecine/Tacrine/Tacrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La tacrine (ou tétrahydroaminacrine) est une substance médicamenteuse utilisée dans le traitement palliatif de la maladie d'Alzheimer[2].
+La tacrine (ou tétrahydroaminacrine) est une substance médicamenteuse utilisée dans le traitement palliatif de la maladie d'Alzheimer.
 Mais elle peut être également employée dans le dopage sportif.
 La tacrine est un principe actif seulement utilisé dans le médicament Cognex sous sa forme de chlorhydrate de tacrine, ou chlorhydrate de 1,2,3,4-tétrahydro-9-acridinamine.
 À température ambiante, le chlorhydrate de tacrine prend la forme d'une poudre blanche, de saveur amère. Il est soluble dans l'eau distillée, l'acide chlorhydrique 0,1 M, le tampon acétate (pH 4), le tampon phosphate (pH 7,0-7,4), le méthanol, le diméthylsulfoxyde, l'éthanol et le propylène glycol.
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1940, en Australie, la tacrine fut utilisée pour limiter les dépressions respiratoires entraînées par la morphine sans modifier ses effets analgésiques. En 1945, la molécule de tacrine est synthétisée pour la première fois par Albert et Gledhill. En 1953, Shaw et Bentley découvrent que la molécule a des propriétés anticholinestérasiques. Ce sont ces propriétés de la tacrine qui seront à l'origine d'essais cliniques chez des patients atteints de la maladie d'Alzheimer quelques années plus tard. Ces essais seront controversés.
 Le médicament contenant la tacrine est utilisé pour la première fois dans les années 1960 comme anesthésiant, puis dans les années 1980 pour des essais cliniques. Il est distribué depuis 1993 aux États-Unis et depuis 1994 en France.
@@ -560,7 +574,9 @@
           <t>Forme et présentation du médicament</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le médicament à base de tacrine se présente sous forme de gélules dosées différemment : 10 mg, 20 mg, 30 mg ou 40 mg. Ce sont des gélules sécurisées, de type C et de taille 7,33/7,64 mm. Elles sont produites par le laboratoire Parke-Davis, et suivent un code couleur en fonction du dosage :
 pour 10 mg, les gélules sont vert foncé et chair ;
@@ -594,12 +610,14 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La demi-absorption est de 10 à 37 minutes, qui est due au principe actif lipophile.
 La biodisponibilité est réduite de 30 à 40 % en cas de prise concomitante avec des aliments, non modifiée pour une prise une heure avant le repas ou la prise d'antiacides.
 La concentration plasmatique est au maximum pour 1,5 heure. L'augmentation de la posologie se fait par palier.
-Les gélules ne peuvent être prescrites que par un neurologue, un psychiatre, un médecin polyvalent gériatre, ou un médecin exerçant en gériatrie répondant aux conditions fixées par l'article L.356 du code de la santé publique (CSP)[3]. La première prescription nécessite une fiche d'initiation de traitement en plus d'une ordonnance de prescription de tacrine et de dosage des ALAT. La délivrance de la tacrine se fait par période de deux semaines pendant les 3 mois de traitement puis mensuellement.
+Les gélules ne peuvent être prescrites que par un neurologue, un psychiatre, un médecin polyvalent gériatre, ou un médecin exerçant en gériatrie répondant aux conditions fixées par l'article L.356 du code de la santé publique (CSP). La première prescription nécessite une fiche d'initiation de traitement en plus d'une ordonnance de prescription de tacrine et de dosage des ALAT. La délivrance de la tacrine se fait par période de deux semaines pendant les 3 mois de traitement puis mensuellement.
 </t>
         </is>
       </c>
@@ -628,7 +646,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Maladie d'Alzheimer.
 Retour à la normale à la suite d'une dépression respiratoire due à l'administration de morphine pour des fins analgésiques.
@@ -668,7 +688,9 @@
           <t>Essais cliniques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Légende :
 T= THA ; P=placebo ;
@@ -705,60 +727,56 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mécanisme d'action de la tacrine reste méconnu.
-Effets
-Sur le système cholinergique
-Inhibe de façon réversible et non compétitive les cholinestérases.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sur le système cholinergique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Inhibe de façon réversible et non compétitive les cholinestérases.
 Se fixe en tant qu'agoniste aux récepteurs muscariniques.
 Présente une faible affinité avec les récepteurs nicotiniques.
 Inhibe de la capture des molécules d'acétylcholine.
-Diminue la libération d'acétylcholine.
-Sur les systèmes de neurotransmission
-Diminue l'effet de l'acide glutamique.
-Bloque l'entrée du calcium.
-Inhibe partiellement les monoamines endogènes.
-Diminue la lyse des neurones.
-Sur les canaux sodopotassiques
-La tacrine bloque les canaux sodium et potassium.
-Action
-Il a été démontré que les patients atteints de la maladie d'Alzheimer présentent un déficit cholinergique. C'est-à-dire, que l'activité de l'acétylase et de l'acétylcholinestérase est réduit. Or l'acétylcholinestérase est une enzyme qui assure la synthèse d'acétylcholine à partir de choline et d'acétyl Co-A, dans les terminaisons axonales. Il y a donc un déficit en neurotransmetteurs. La tacrine est un inhibiteur réversible et non compétitif des cholinestérases. En empêchant l'action de l'acétylcholinestérase qui se fixe sur les récepteurs muscariniques, la tacrine permet à l'acétylcholine de rester plus longtemps dans la terminaison axonale et ainsi d'agir sur les sites postsynaptiques. La stimulation postsynaptique entraîne un rétablissement de la conduction nerveuse améliorant ainsi les capacités cognitives du patient. Cependant la stimulation présynaptique entraîne une libération d'acétylcholine moins importante mais puisque la tacrine agit en coopération avec l'acétylcholine (fixation sur un site allostérique des récepteurs), cela diminue les pertes en acétylcholine et offre un meilleur résultat en présence de tacrine.
-Le calcium joue également un rôle dans la dégénérescence et la mort neuronale. Or la tacrine inhibe la partie ionophore du récepteur NMDA (acide N-méthyl-D-aspartique) qui correspond à l'échangeur Na+/Ca2+. Le récepteur de la phéncyclidine (PCP) est également antagonisé par la tacrine. Ces conditions entraînent une diminution de la concentration en calcium libre dans les neurones, ce qui retarde la mort neuronale.
-Distribution
-À la suite de l'administration et de l'absorption la tacrine passe rapidement la barrière hémato-encéphalique pour se diffuser principalement dans le cortex cérébral, le système limbique, le thalamus et le striatum.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tacrine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Métabolisme </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Métabolisme hépatique intense impliquant la voie du cytochrome P-450 (ou isoenzyme P-450 1A2). Ce sont majoritairement des hydroxylations. La tacrine forme principalement un métabolite du nom de 1-hydroxytacrine ou velnacrine, qui est présent à environ 5,5 % dans la dose administrée. Elle forme également la 2-hydroxytacrine en quantité quantifiable dans la dose, et la 4-hydroxytacrine en plus faible quantité.
-</t>
+Diminue la libération d'acétylcholine.</t>
         </is>
       </c>
     </row>
@@ -783,16 +801,251 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sur les systèmes de neurotransmission</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Diminue l'effet de l'acide glutamique.
+Bloque l'entrée du calcium.
+Inhibe partiellement les monoamines endogènes.
+Diminue la lyse des neurones.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sur les canaux sodopotassiques</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tacrine bloque les canaux sodium et potassium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été démontré que les patients atteints de la maladie d'Alzheimer présentent un déficit cholinergique. C'est-à-dire, que l'activité de l'acétylase et de l'acétylcholinestérase est réduit. Or l'acétylcholinestérase est une enzyme qui assure la synthèse d'acétylcholine à partir de choline et d'acétyl Co-A, dans les terminaisons axonales. Il y a donc un déficit en neurotransmetteurs. La tacrine est un inhibiteur réversible et non compétitif des cholinestérases. En empêchant l'action de l'acétylcholinestérase qui se fixe sur les récepteurs muscariniques, la tacrine permet à l'acétylcholine de rester plus longtemps dans la terminaison axonale et ainsi d'agir sur les sites postsynaptiques. La stimulation postsynaptique entraîne un rétablissement de la conduction nerveuse améliorant ainsi les capacités cognitives du patient. Cependant la stimulation présynaptique entraîne une libération d'acétylcholine moins importante mais puisque la tacrine agit en coopération avec l'acétylcholine (fixation sur un site allostérique des récepteurs), cela diminue les pertes en acétylcholine et offre un meilleur résultat en présence de tacrine.
+Le calcium joue également un rôle dans la dégénérescence et la mort neuronale. Or la tacrine inhibe la partie ionophore du récepteur NMDA (acide N-méthyl-D-aspartique) qui correspond à l'échangeur Na+/Ca2+. Le récepteur de la phéncyclidine (PCP) est également antagonisé par la tacrine. Ces conditions entraînent une diminution de la concentration en calcium libre dans les neurones, ce qui retarde la mort neuronale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'administration et de l'absorption la tacrine passe rapidement la barrière hémato-encéphalique pour se diffuser principalement dans le cortex cérébral, le système limbique, le thalamus et le striatum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métabolisme </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Métabolisme hépatique intense impliquant la voie du cytochrome P-450 (ou isoenzyme P-450 1A2). Ce sont majoritairement des hydroxylations. La tacrine forme principalement un métabolite du nom de 1-hydroxytacrine ou velnacrine, qui est présent à environ 5,5 % dans la dose administrée. Elle forme également la 2-hydroxytacrine en quantité quantifiable dans la dose, et la 4-hydroxytacrine en plus faible quantité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Effets sur l'organisme</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effets thérapeutiques
-La tacrine est indiquée dans le traitement de la maladie d'Alzheimer des formes légères à modérées. Les résultats sont évalués selon trois critères : la sous échelle cognitive de l'échelle d'évaluation de la maladie d'Alzheimer (ADAs-Cog), l'impression clinique globale de changement évaluée par clinicien (CIBI) et l'échelle qualité de vie appréciant les activités du patient.
-Toxicologie
-Contre-indications 
-Grossesse et allaitement
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Effets thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tacrine est indiquée dans le traitement de la maladie d'Alzheimer des formes légères à modérées. Les résultats sont évalués selon trois critères : la sous échelle cognitive de l'échelle d'évaluation de la maladie d'Alzheimer (ADAs-Cog), l'impression clinique globale de changement évaluée par clinicien (CIBI) et l'échelle qualité de vie appréciant les activités du patient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Effets sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contre-indications </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Grossesse et allaitement
 Maladies hépatiques évolutives et séquelles de maladies hépatiques
 Ulcères gastroduodénaux évolutifs non traités
 Hypersensibilité aux substances cholinomimétiques et composés chimiques apparentés à l’acridine
@@ -804,23 +1057,177 @@
 Antécédents d'asthme
 Pathologie du péristaltisme intestinal
 Dysfonctionnement sphinctérien
-Risque d'aggraver les troubles du rythme cardiaque par effets vagotoniques
-Non indiqué
-Formes débutantes, ni dans les formes graves de la MA
+Risque d'aggraver les troubles du rythme cardiaque par effets vagotoniques</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Effets sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Non indiqué</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Formes débutantes, ni dans les formes graves de la MA
 Autres démences
 Troubles bénins de la mémoire
-Troubles neuropsychologique du sida
-Interactions médicamenteuses
-Il est nécessaire d'être vigilant aux interactions que pourrait avoir la tacrine avec d'autres médicaments, d'autres traitements en cours :
+Troubles neuropsychologique du sida</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Effets sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Interactions médicamenteuses</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nécessaire d'être vigilant aux interactions que pourrait avoir la tacrine avec d'autres médicaments, d'autres traitements en cours :
 la théophylline est un bronchodilatateur. Associée à la tacrine, elle entraîne une augmentation des effets indésirables comme nausées, vomissements et tachycardie ;
 la cimétidine est un anti-ulcéreux qui diminue la sécrétion gastrique. Un de ses effets indésirables consiste en des troubles gastro-intestinaux, tout comme la tacrine. Si ces médicaments sont pris ensemble, ces effets s'ajoutent (nausées, diarrhée, vomissement) ;
 le bétanéchol est un agoniste cholinergique. L'utilisation de ce médicament et de la tacrine est à éviter car elle peut entraîner une addition des effets indésirables.
 Il est nécessaire de réévaluer, voire de supprimer les doses à administrer dans le cas où ces médicaments sont pris en même temps que la tacrine.
-Effets secondaires et indésirables
-La tacrine est mutagène et hépatotoxique. Il est donc nécessaire de surveiller la survenue d'atteintes hépatiques chez un individu suivant ce traitement. Ces effets hépatocytaires dépendent de la susceptibilité individuelle des patients, la dose administrée et le temps de traitement. L'hépatotoxicité consiste en la destructions des cellules du foie et se caractérise par une augmentation des transaminases.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Effets sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Effets secondaires et indésirables</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tacrine est mutagène et hépatotoxique. Il est donc nécessaire de surveiller la survenue d'atteintes hépatiques chez un individu suivant ce traitement. Ces effets hépatocytaires dépendent de la susceptibilité individuelle des patients, la dose administrée et le temps de traitement. L'hépatotoxicité consiste en la destructions des cellules du foie et se caractérise par une augmentation des transaminases.
 Chez plus de 50 % des patients, il a été constaté des effets indésirables : l'élévation des transaminases sériques chez 40 % à 50 % des patients, des vertiges, dyspepsies, douleurs abdominales, diarrhées, nausées, vomissements, anorexie, myalgie dans 10 % à 15 % des cas, et dans moins de 10 % des cas de l'asthénie, de l'ataxie, des troubles du sommeil, des manifestations cutanées, des céphalées, des douleurs thoraciques, des confusions, des agitations et des dépressions.
-Surdosage
-En cas de surdosage, les effets indésirables et secondaires sont amplifiés. Il peut se produire une exagération des nausées, des vomissements, des diarrhées, des sécrétions (larmes, salive, sueur), l'apparition d'une faiblesse musculaire croissante pouvant aller jusqu'à la paralysie des muscles, mortelle par atteinte respiratoire. Les anticholinergiques atropiniques sont des antidotes en cas de surdosage. La dose initiale d'atropine recommandée est de 0,4 à 1 mg, à renouveler si nécessaire. Cette prise se fait par intraveineuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tacrine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tacrine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Effets sur l'organisme</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Surdosage</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de surdosage, les effets indésirables et secondaires sont amplifiés. Il peut se produire une exagération des nausées, des vomissements, des diarrhées, des sécrétions (larmes, salive, sueur), l'apparition d'une faiblesse musculaire croissante pouvant aller jusqu'à la paralysie des muscles, mortelle par atteinte respiratoire. Les anticholinergiques atropiniques sont des antidotes en cas de surdosage. La dose initiale d'atropine recommandée est de 0,4 à 1 mg, à renouveler si nécessaire. Cette prise se fait par intraveineuse.
 </t>
         </is>
       </c>
